--- a/entregas_sustentación/planes/plan_pruebas_aceptación/03_plantillas/pl02_Lista de chequeo producto software.xlsx
+++ b/entregas_sustentación/planes/plan_pruebas_aceptación/03_plantillas/pl02_Lista de chequeo producto software.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27728"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMBIENTE 314\Downloads\tps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SenaProfeAlbeiro\_classrooms\adso_dn_vi_2693505\entregas_sustentación\planes\plan_pruebas_aceptación\03_plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D360566-1192-4720-8E08-35EE99C63CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7339D8F2-F3F5-41DF-B8F2-B65BD1C9F045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="772" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="5" r:id="rId1"/>
@@ -29,6 +29,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1129,72 +1140,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1204,7 +1171,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1213,9 +1179,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,9 +1188,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1237,7 +1197,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,47 +1206,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1306,10 +1228,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,26 +1246,115 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1714,463 +1725,481 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59A635BB-A94A-407B-BBB0-F2B3339CC475}">
   <dimension ref="A2:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28" style="10" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="12" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" style="10" customWidth="1"/>
-    <col min="13" max="256" width="12" style="10" customWidth="1"/>
-    <col min="257" max="257" width="12.5703125" style="10" customWidth="1"/>
-    <col min="258" max="16384" width="11.42578125" style="10"/>
+    <col min="1" max="1" width="12" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28" style="9" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="12" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="9" customWidth="1"/>
+    <col min="13" max="256" width="12" style="9" customWidth="1"/>
+    <col min="257" max="257" width="12.5703125" style="9" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" spans="2:6" ht="17.25" thickTop="1">
-      <c r="F6" s="13"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
     <row r="11" spans="2:6" ht="18.75" thickTop="1">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
     </row>
     <row r="12" spans="2:6" ht="18">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="2:6" ht="18.75" thickBot="1">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25" t="s">
+      <c r="D14" s="72"/>
+      <c r="E14" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
+      <c r="D15" s="74"/>
+      <c r="E15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33" t="s">
+      <c r="D16" s="76"/>
+      <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="17.25" thickTop="1">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
     </row>
     <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
     <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="38" t="s">
+      <c r="P19" s="21" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="24" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="46" t="s">
+      <c r="E22" s="67"/>
+      <c r="F22" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="2:16" ht="25.5" customHeight="1">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="54"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
     <row r="32" spans="2:16" ht="19.899999999999999" customHeight="1">
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
     <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="1:13" s="58" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
-    </row>
-    <row r="36" spans="1:13" s="58" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="J36" s="58" t="s">
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+    </row>
+    <row r="35" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+    </row>
+    <row r="36" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="J36" s="34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="58" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-    </row>
-    <row r="38" spans="1:13" s="58" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
-    </row>
-    <row r="39" spans="1:13" s="58" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
+    <row r="37" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="34"/>
     </row>
     <row r="41" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="68"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="B42" s="58"/>
+      <c r="B42" s="34"/>
     </row>
     <row r="43" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
     </row>
     <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
+      <c r="A44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
     </row>
     <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="68"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
     </row>
     <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1">
-      <c r="B48" s="58"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
+      <c r="B48" s="34"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B49" s="69"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
+      <c r="B49" s="36"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B50" s="70"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
+      <c r="B50" s="37"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F51" s="69"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
+      <c r="F51" s="36"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B52" s="70"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
+      <c r="B52" s="37"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F53" s="68"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
+      <c r="F53" s="35"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B54" s="70"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="68"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
+      <c r="B54" s="37"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="35"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F55" s="58"/>
-      <c r="G55" s="68"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="35"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B56" s="71"/>
-      <c r="F56" s="58"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="F56" s="34"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="F57" s="69"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
+      <c r="F57" s="36"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
     </row>
     <row r="58" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B58" s="71"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
     </row>
     <row r="59" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B60" s="71"/>
+      <c r="B60" s="38"/>
     </row>
     <row r="61" spans="2:12" ht="19.899999999999999" customHeight="1"/>
     <row r="62" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B62" s="71"/>
+      <c r="B62" s="38"/>
     </row>
     <row r="63" spans="2:12" ht="19.899999999999999" customHeight="1"/>
     <row r="64" spans="2:12" ht="19.899999999999999" customHeight="1">
-      <c r="B64" s="71"/>
+      <c r="B64" s="38"/>
     </row>
     <row r="65" spans="2:2" ht="19.899999999999999" customHeight="1"/>
     <row r="66" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B66" s="71"/>
+      <c r="B66" s="38"/>
     </row>
     <row r="67" spans="2:2" ht="19.899999999999999" customHeight="1"/>
     <row r="68" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B68" s="71"/>
+      <c r="B68" s="38"/>
     </row>
     <row r="69" spans="2:2" ht="19.899999999999999" customHeight="1"/>
     <row r="70" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B70" s="71"/>
+      <c r="B70" s="38"/>
     </row>
     <row r="71" spans="2:2" ht="19.899999999999999" customHeight="1"/>
     <row r="72" spans="2:2" ht="19.899999999999999" customHeight="1">
-      <c r="B72" s="71"/>
+      <c r="B72" s="38"/>
     </row>
     <row r="73" spans="2:2" ht="19.899999999999999" customHeight="1"/>
     <row r="74" spans="2:2">
-      <c r="B74" s="71"/>
+      <c r="B74" s="38"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="71"/>
+      <c r="B76" s="38"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="71"/>
+      <c r="B78" s="38"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="71"/>
+      <c r="B80" s="38"/>
     </row>
     <row r="81" spans="2:3">
-      <c r="B81" s="68"/>
+      <c r="B81" s="35"/>
     </row>
     <row r="82" spans="2:3">
-      <c r="C82" s="68"/>
+      <c r="C82" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
@@ -2181,24 +2210,6 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -2211,7 +2222,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC27DB5-F54D-4E92-8170-7A53853F8C0C}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -2222,24 +2235,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2409,24 +2422,24 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2596,24 +2609,24 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="75"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2783,24 +2796,24 @@
       </c>
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A52" s="77" t="s">
+      <c r="A52" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="76"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="75"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="72" t="s">
+      <c r="D53" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2970,30 +2983,30 @@
       </c>
     </row>
     <row r="69" spans="1:4" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A69" s="77" t="s">
+      <c r="A69" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="74"/>
-      <c r="D69" s="75"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
     </row>
     <row r="70" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A70" s="78" t="s">
+      <c r="A70" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="72" t="s">
+      <c r="D70" s="39" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C17 C20:C34 C37:C51 C54:C68" xr:uid="{F381E73E-C892-4E35-A1B1-7DCF65F35B27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54:C68 C20:C34 C37:C51 C3:C17" xr:uid="{F381E73E-C892-4E35-A1B1-7DCF65F35B27}">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3005,27 +3018,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="90.7109375" style="86" customWidth="1"/>
+    <col min="2" max="2" width="90.7109375" style="51" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="3" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3033,7 +3048,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="5"/>
@@ -3046,7 +3061,7 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="5"/>
@@ -3059,7 +3074,7 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="50" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="5"/>
@@ -3072,7 +3087,7 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="50" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="5"/>
@@ -3085,7 +3100,7 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="50" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="5"/>
@@ -3098,7 +3113,7 @@
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="50" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="5"/>
@@ -3111,7 +3126,7 @@
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="50" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="5"/>
@@ -3124,7 +3139,7 @@
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="50" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="5"/>
@@ -3134,16 +3149,16 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3151,7 +3166,7 @@
       <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="50" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="5"/>
@@ -3164,7 +3179,7 @@
       <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="50" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="5"/>
@@ -3177,7 +3192,7 @@
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="5"/>
@@ -3190,7 +3205,7 @@
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="5"/>
@@ -3203,7 +3218,7 @@
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="50" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="5"/>
@@ -3216,7 +3231,7 @@
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="50" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="5"/>
@@ -3229,7 +3244,7 @@
       <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="50" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="5"/>
@@ -3239,16 +3254,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3256,7 +3271,7 @@
       <c r="A19" s="8">
         <v>16</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="50" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="5"/>
@@ -3269,7 +3284,7 @@
       <c r="A20" s="8">
         <v>17</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="5"/>
@@ -3282,7 +3297,7 @@
       <c r="A21" s="8">
         <v>18</v>
       </c>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="50" t="s">
         <v>68</v>
       </c>
       <c r="C21" s="5"/>
@@ -3295,7 +3310,7 @@
       <c r="A22" s="8">
         <v>19</v>
       </c>
-      <c r="B22" s="85" t="s">
+      <c r="B22" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="5"/>
@@ -3308,7 +3323,7 @@
       <c r="A23" s="8">
         <v>20</v>
       </c>
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="50" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="5"/>
@@ -3321,7 +3336,7 @@
       <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="5"/>
@@ -3334,7 +3349,7 @@
       <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="5"/>
@@ -3347,7 +3362,7 @@
       <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="5"/>
@@ -3357,16 +3372,16 @@
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3374,7 +3389,7 @@
       <c r="A28" s="8">
         <v>24</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="50" t="s">
         <v>74</v>
       </c>
       <c r="C28" s="5"/>
@@ -3387,7 +3402,7 @@
       <c r="A29" s="8">
         <v>25</v>
       </c>
-      <c r="B29" s="85" t="s">
+      <c r="B29" s="50" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="5"/>
@@ -3400,7 +3415,7 @@
       <c r="A30" s="8">
         <v>26</v>
       </c>
-      <c r="B30" s="85" t="s">
+      <c r="B30" s="50" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="5"/>
@@ -3413,7 +3428,7 @@
       <c r="A31" s="8">
         <v>27</v>
       </c>
-      <c r="B31" s="85" t="s">
+      <c r="B31" s="50" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="5"/>
@@ -3426,7 +3441,7 @@
       <c r="A32" s="8">
         <v>28</v>
       </c>
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="50" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="5"/>
@@ -3439,7 +3454,7 @@
       <c r="A33" s="8">
         <v>29</v>
       </c>
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="50" t="s">
         <v>79</v>
       </c>
       <c r="C33" s="5"/>
@@ -3449,16 +3464,16 @@
       </c>
     </row>
     <row r="34" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="72" t="s">
+      <c r="D34" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3466,7 +3481,7 @@
       <c r="A35" s="8">
         <v>30</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="50" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="5"/>
@@ -3479,7 +3494,7 @@
       <c r="A36" s="8">
         <v>31</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="50" t="s">
         <v>81</v>
       </c>
       <c r="C36" s="5"/>
@@ -3492,7 +3507,7 @@
       <c r="A37" s="8">
         <v>32</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="50" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="5"/>
@@ -3502,16 +3517,16 @@
       </c>
     </row>
     <row r="38" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3519,7 +3534,7 @@
       <c r="A39" s="8">
         <v>33</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="50" t="s">
         <v>83</v>
       </c>
       <c r="C39" s="5"/>
@@ -3532,7 +3547,7 @@
       <c r="A40" s="8">
         <v>34</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="50" t="s">
         <v>84</v>
       </c>
       <c r="C40" s="5"/>
@@ -3545,7 +3560,7 @@
       <c r="A41" s="8">
         <v>35</v>
       </c>
-      <c r="B41" s="85" t="s">
+      <c r="B41" s="50" t="s">
         <v>85</v>
       </c>
       <c r="C41" s="5"/>
@@ -3558,7 +3573,7 @@
       <c r="A42" s="8">
         <v>36</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C42" s="5"/>
@@ -3571,7 +3586,7 @@
       <c r="A43" s="8">
         <v>37</v>
       </c>
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="50" t="s">
         <v>87</v>
       </c>
       <c r="C43" s="5"/>
@@ -3584,7 +3599,7 @@
       <c r="A44" s="8">
         <v>38</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="50" t="s">
         <v>88</v>
       </c>
       <c r="C44" s="5"/>
@@ -3597,7 +3612,7 @@
       <c r="A45" s="8">
         <v>39</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="50" t="s">
         <v>89</v>
       </c>
       <c r="C45" s="5"/>
@@ -3610,7 +3625,7 @@
       <c r="A46" s="8">
         <v>40</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="50" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="5"/>
@@ -3623,7 +3638,7 @@
       <c r="A47" s="8">
         <v>41</v>
       </c>
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="50" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="5"/>
@@ -3636,7 +3651,7 @@
       <c r="A48" s="8">
         <v>42</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="50" t="s">
         <v>92</v>
       </c>
       <c r="C48" s="5"/>
@@ -3646,16 +3661,16 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3663,7 +3678,7 @@
       <c r="A50" s="8">
         <v>43</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="50" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="5"/>
@@ -3676,7 +3691,7 @@
       <c r="A51" s="8">
         <v>44</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="50" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="5"/>
@@ -3689,7 +3704,7 @@
       <c r="A52" s="8">
         <v>45</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="50" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="5"/>
@@ -3702,7 +3717,7 @@
       <c r="A53" s="8">
         <v>46</v>
       </c>
-      <c r="B53" s="85" t="s">
+      <c r="B53" s="50" t="s">
         <v>96</v>
       </c>
       <c r="C53" s="5"/>
@@ -3715,7 +3730,7 @@
       <c r="A54" s="8">
         <v>47</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="50" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="5"/>
@@ -3728,7 +3743,7 @@
       <c r="A55" s="8">
         <v>48</v>
       </c>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="50" t="s">
         <v>98</v>
       </c>
       <c r="C55" s="5"/>
@@ -3741,7 +3756,7 @@
       <c r="A56" s="8">
         <v>49</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="50" t="s">
         <v>99</v>
       </c>
       <c r="C56" s="5"/>
@@ -3754,7 +3769,7 @@
       <c r="A57" s="8">
         <v>50</v>
       </c>
-      <c r="B57" s="85" t="s">
+      <c r="B57" s="50" t="s">
         <v>100</v>
       </c>
       <c r="C57" s="5"/>
@@ -3767,7 +3782,7 @@
       <c r="A58" s="8">
         <v>51</v>
       </c>
-      <c r="B58" s="85" t="s">
+      <c r="B58" s="50" t="s">
         <v>101</v>
       </c>
       <c r="C58" s="5"/>
@@ -3780,7 +3795,7 @@
       <c r="A59" s="8">
         <v>52</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="50" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="5"/>
@@ -3790,16 +3805,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="72" t="s">
+      <c r="B60" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="39" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3807,7 +3822,7 @@
       <c r="A61" s="8">
         <v>53</v>
       </c>
-      <c r="B61" s="85" t="s">
+      <c r="B61" s="50" t="s">
         <v>103</v>
       </c>
       <c r="C61" s="5"/>
@@ -3820,7 +3835,7 @@
       <c r="A62" s="8">
         <v>54</v>
       </c>
-      <c r="B62" s="85" t="s">
+      <c r="B62" s="50" t="s">
         <v>104</v>
       </c>
       <c r="C62" s="5"/>
@@ -3833,7 +3848,7 @@
       <c r="A63" s="8">
         <v>55</v>
       </c>
-      <c r="B63" s="85" t="s">
+      <c r="B63" s="50" t="s">
         <v>105</v>
       </c>
       <c r="C63" s="5"/>
@@ -3846,7 +3861,7 @@
       <c r="A64" s="8">
         <v>56</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="50" t="s">
         <v>106</v>
       </c>
       <c r="C64" s="5"/>
@@ -3859,7 +3874,7 @@
       <c r="A65" s="8">
         <v>57</v>
       </c>
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="50" t="s">
         <v>107</v>
       </c>
       <c r="C65" s="5"/>
@@ -3870,7 +3885,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C11:C17 C19:C26 C28:C32 C50:C59 C39:C48 C33 C35:C37" xr:uid="{28946FFD-2DE3-4AFF-8B02-311FA9F788A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9 C11:C17 C19:C26 C50:C59 C39:C48 C28:C33 C35:C37 C61:C65" xr:uid="{28946FFD-2DE3-4AFF-8B02-311FA9F788A5}">
       <formula1>"Cumple, No Cumple"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3882,38 +3897,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D51D51-DE4C-4B5C-90F6-8EADB68EB458}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="230" zoomScaleNormal="230" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="85" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1">
-      <c r="A2" s="82">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -3927,14 +3944,14 @@
         <f>COUNTIF('Requisitos Funcionales'!C2:C68,"Cumple")</f>
         <v>0</v>
       </c>
-      <c r="E2" s="83">
+      <c r="E2" s="48">
         <f>D2/C2%</f>
         <v>0</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="86"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1">
-      <c r="A3" s="82">
+      <c r="A3" s="47">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3948,22 +3965,22 @@
         <f>COUNTIF('Requisitos No Funcionales'!C:C,"Cumple")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="48">
         <f t="shared" ref="E3:E4" si="0">D3/C3%</f>
         <v>0</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1">
-      <c r="C4" s="79">
+      <c r="C4" s="46">
         <f>SUM(C2:C3)</f>
         <v>117</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="46">
         <f>SUM(D2:D3)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
